--- a/Azure Provider Namespaces.xlsx
+++ b/Azure Provider Namespaces.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="11168"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="11168" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Azure Resources" sheetId="1" r:id="rId1"/>
+    <sheet name="Most Important" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Azure Resources'!$A$1:$B$1</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="169">
   <si>
     <t>Azure Provider Namespace</t>
   </si>
@@ -492,6 +493,48 @@
   </si>
   <si>
     <t xml:space="preserve">U2uconsult.TheIdentityHub               </t>
+  </si>
+  <si>
+    <t>Azure API Management</t>
+  </si>
+  <si>
+    <t>Azure App Gateway</t>
+  </si>
+  <si>
+    <t>Azure Membership Services</t>
+  </si>
+  <si>
+    <t>Azure Container Services</t>
+  </si>
+  <si>
+    <t>Azure Cosmos DB</t>
+  </si>
+  <si>
+    <t>Azure Storage Blob</t>
+  </si>
+  <si>
+    <t>Azure Storage Files</t>
+  </si>
+  <si>
+    <t>Azure Event Hub</t>
+  </si>
+  <si>
+    <t>Azure Data Processing</t>
+  </si>
+  <si>
+    <t>Azure Queue</t>
+  </si>
+  <si>
+    <t>Azure Traffic Manager</t>
+  </si>
+  <si>
+    <t>Azure Document DB</t>
+  </si>
+  <si>
+    <t>Azure Functions</t>
+  </si>
+  <si>
+    <t>Azure Batch Pool Instances</t>
   </si>
 </sst>
 </file>
@@ -811,7 +854,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B154"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A63" workbookViewId="0">
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
@@ -1598,4 +1641,92 @@
   <autoFilter ref="A1:B1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="22.53125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>167</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Azure Provider Namespaces.xlsx
+++ b/Azure Provider Namespaces.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="170">
   <si>
     <t>Azure Provider Namespace</t>
   </si>
@@ -495,9 +495,6 @@
     <t xml:space="preserve">U2uconsult.TheIdentityHub               </t>
   </si>
   <si>
-    <t>Azure API Management</t>
-  </si>
-  <si>
     <t>Azure App Gateway</t>
   </si>
   <si>
@@ -535,6 +532,12 @@
   </si>
   <si>
     <t>Azure Batch Pool Instances</t>
+  </si>
+  <si>
+    <t>Azure Express Route</t>
+  </si>
+  <si>
+    <t>Azure API Manager</t>
   </si>
 </sst>
 </file>
@@ -854,8 +857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B154"/>
   <sheetViews>
-    <sheetView topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B132" sqref="B132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1645,10 +1648,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A14"/>
+  <dimension ref="A1:A15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1703,12 +1706,12 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.45">
@@ -1723,7 +1726,12 @@
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>167</v>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>

--- a/Azure Provider Namespaces.xlsx
+++ b/Azure Provider Namespaces.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="172">
   <si>
     <t>Azure Provider Namespace</t>
   </si>
@@ -538,6 +538,12 @@
   </si>
   <si>
     <t>Azure API Manager</t>
+  </si>
+  <si>
+    <t>Azure Service Registry</t>
+  </si>
+  <si>
+    <t>Azure Service Gateway</t>
   </si>
 </sst>
 </file>
@@ -1648,10 +1654,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A15"/>
+  <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1734,6 +1740,16 @@
         <v>169</v>
       </c>
     </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>171</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Azure Provider Namespaces.xlsx
+++ b/Azure Provider Namespaces.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="174">
   <si>
     <t>Azure Provider Namespace</t>
   </si>
@@ -544,6 +544,12 @@
   </si>
   <si>
     <t>Azure Service Gateway</t>
+  </si>
+  <si>
+    <t>Azure Event Grid</t>
+  </si>
+  <si>
+    <t>Azure Logging</t>
   </si>
 </sst>
 </file>
@@ -1654,10 +1660,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A17"/>
+  <dimension ref="A1:A19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1750,6 +1756,16 @@
         <v>171</v>
       </c>
     </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>172</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
